--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe cloud service types.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe cloud service types.xlsx
@@ -168,6 +168,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3571875"/>
+          <a:ext cx="13361905" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6429375"/>
+          <a:ext cx="13361905" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -203,6 +279,44 @@
         <a:xfrm>
           <a:off x="685800" y="238125"/>
           <a:ext cx="3457143" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2619375"/>
+          <a:ext cx="13361905" cy="4752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,7 +611,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -519,7 +633,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe cloud service types.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe cloud service types.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACE18D-5CCB-4DD4-86D3-6FDAE1ED0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="9510" yWindow="3090" windowWidth="17460" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure as a Service" sheetId="1" r:id="rId1"/>
@@ -29,18 +30,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -102,7 +103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -145,7 +152,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -183,7 +196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -221,7 +240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -244,6 +269,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>293638</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4D84E2-6307-9E5E-5E24-7EACA9446355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9525000"/>
+          <a:ext cx="13095238" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -264,7 +333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -302,7 +377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -590,14 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,16 +688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,14 +710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
